--- a/Progressions/2025_2026_Informatique_PTSI.xlsx
+++ b/Progressions/2025_2026_Informatique_PTSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEACCFE-0378-4FF7-BFA5-3CE0560D5C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD7DB50-5192-4256-A37A-69C652437855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="245">
   <si>
     <t>Num</t>
   </si>
@@ -1030,30 +1030,6 @@
     <t>PTSI2 VR</t>
   </si>
   <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>TP4</t>
-  </si>
-  <si>
-    <t>TP5</t>
-  </si>
-  <si>
-    <t>TP6</t>
-  </si>
-  <si>
-    <t>TP7</t>
-  </si>
-  <si>
-    <t>TP8</t>
-  </si>
-  <si>
     <t>TP9</t>
   </si>
   <si>
@@ -1073,6 +1049,24 @@
   </si>
   <si>
     <t>PTSI 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>COURS</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>TP NOTE</t>
+  </si>
+  <si>
+    <t>ED</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2002,11 +1996,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,10 +2131,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2026,99 +2155,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2131,6 +2176,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2140,6 +2188,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2149,80 +2206,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2544,10 +2529,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -2594,7 +2579,7 @@
       </c>
       <c r="K1" s="33"/>
       <c r="L1" s="40" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>97</v>
@@ -2636,28 +2621,24 @@
       <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="121" t="s">
         <v>197</v>
       </c>
       <c r="K2" s="57" t="s">
         <v>168</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
+        <v>238</v>
+      </c>
       <c r="Q2" s="2">
         <v>1</v>
       </c>
@@ -2681,27 +2662,29 @@
 au
 14/09/24</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="116">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="114"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="M3" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
+      <c r="M3" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
       <c r="Q3" s="2">
         <v>2</v>
       </c>
@@ -2725,8 +2708,8 @@
 au
 21/09/24</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="81"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2743,10 +2726,10 @@
       <c r="L4" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="148"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="146"/>
+      <c r="M4" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="O4" s="88"/>
       <c r="Q4" s="2">
         <v>2</v>
       </c>
@@ -2770,21 +2753,21 @@
 au
 28/09/24</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="116">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="118" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="119" t="s">
         <v>201</v>
       </c>
       <c r="K5" s="13"/>
@@ -2792,9 +2775,11 @@
         <v>173</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="N5" s="36"/>
+        <v>240</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>242</v>
+      </c>
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="2">
@@ -2820,22 +2805,22 @@
 au
 05/10/24</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="81"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="145"/>
+      <c r="M6" s="36" t="s">
+        <v>241</v>
+      </c>
       <c r="O6" s="36"/>
-      <c r="P6" s="146"/>
       <c r="Q6" s="2">
         <v>3</v>
       </c>
@@ -2862,7 +2847,7 @@
       <c r="E7" s="58"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="118" t="s">
         <v>175</v>
       </c>
       <c r="I7" s="13"/>
@@ -2871,12 +2856,14 @@
       <c r="L7" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="M7" s="149" t="s">
-        <v>234</v>
-      </c>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
+      <c r="M7" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
@@ -2904,7 +2891,7 @@
         <v>199</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="81"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
         <v>198</v>
@@ -2913,10 +2900,10 @@
       <c r="L8" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M8" s="149"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="146"/>
+      <c r="M8" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="O8" s="89"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
@@ -2936,20 +2923,16 @@
 au
 26/10/24</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2967,18 +2950,14 @@
 au
 02/11/24</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="146"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -2999,7 +2978,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="109" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -3014,12 +2993,14 @@
       <c r="L11" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="M11" s="150" t="s">
-        <v>235</v>
-      </c>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
+      <c r="M11" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="N11" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
       <c r="Q11" s="2">
         <v>4</v>
       </c>
@@ -3043,18 +3024,18 @@
 au
 16/11/24</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="108">
         <v>5</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="90" t="s">
+      <c r="F12" s="110"/>
+      <c r="G12" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90" t="s">
+      <c r="I12" s="103"/>
+      <c r="J12" s="103" t="s">
         <v>177</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -3063,10 +3044,10 @@
       <c r="L12" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="M12" s="150"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="146"/>
+      <c r="M12" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="O12" s="90"/>
       <c r="Q12" s="2">
         <v>4</v>
       </c>
@@ -3090,24 +3071,26 @@
 au
 23/11/24</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="111" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="13"/>
       <c r="L13" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="M13" s="151" t="s">
-        <v>236</v>
-      </c>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
+      <c r="M13" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="N13" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
       <c r="Q13" s="3">
         <v>5</v>
       </c>
@@ -3131,29 +3114,29 @@
 au
 30/11/24</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="108">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="110"/>
+      <c r="G14" s="103" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90" t="s">
+      <c r="I14" s="103"/>
+      <c r="J14" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="90"/>
+      <c r="K14" s="103"/>
       <c r="L14" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="M14" s="151"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="146"/>
+      <c r="M14" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="91"/>
       <c r="Q14" s="3">
         <v>5</v>
       </c>
@@ -3177,24 +3160,21 @@
 au
 07/12/24</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="111" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="90"/>
+      <c r="G15" s="103"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
       <c r="L15" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="M15" s="152" t="s">
-        <v>237</v>
-      </c>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
+      <c r="M15" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="Q15" s="3">
         <v>6</v>
       </c>
@@ -3218,26 +3198,30 @@
 au
 14/12/24</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="108">
         <v>7</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="90"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="103"/>
       <c r="H16" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90" t="s">
+      <c r="I16" s="103"/>
+      <c r="J16" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="90"/>
+      <c r="K16" s="103"/>
       <c r="L16" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="M16" s="152"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="146"/>
+      <c r="M16" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
       <c r="Q16" s="3">
         <v>6</v>
       </c>
@@ -3261,24 +3245,22 @@
 au
 21/12/24</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="112"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="60"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="153" t="s">
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="M17" s="148" t="s">
-        <v>238</v>
-      </c>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
+      <c r="M17" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="O17" s="92"/>
       <c r="Q17" s="3">
         <v>7</v>
       </c>
@@ -3299,20 +3281,17 @@
 au
 28/12/24</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3331,18 +3310,14 @@
 au
 04/01/25</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="146"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3364,7 +3339,7 @@
 au
 11/01/25</v>
       </c>
-      <c r="E20" s="139">
+      <c r="E20" s="82">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
@@ -3373,21 +3348,25 @@
       <c r="G20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="141" t="s">
+      <c r="H20" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141" t="s">
+      <c r="I20" s="84"/>
+      <c r="J20" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="141"/>
-      <c r="L20" s="137" t="s">
+      <c r="K20" s="84"/>
+      <c r="L20" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="M20" s="148"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="146"/>
+      <c r="M20" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="36"/>
       <c r="Q20" s="3">
         <v>7</v>
       </c>
@@ -3411,7 +3390,7 @@
 au
 18/01/25</v>
       </c>
-      <c r="E21" s="140"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="13" t="s">
         <v>12</v>
       </c>
@@ -3420,15 +3399,13 @@
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="138" t="s">
+      <c r="L21" s="81" t="s">
         <v>173</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="N21" s="36"/>
+        <v>242</v>
+      </c>
       <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
       <c r="Q21" s="3" t="s">
         <v>158</v>
       </c>
@@ -3452,31 +3429,35 @@
 au
 25/01/25</v>
       </c>
-      <c r="E22" s="139">
+      <c r="E22" s="82">
         <f>E20+1</f>
         <v>9</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="G22" s="141" t="s">
+      <c r="G22" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="142" t="s">
+      <c r="H22" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="141" t="s">
+      <c r="I22" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="141" t="s">
+      <c r="J22" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="K22" s="141"/>
-      <c r="L22" s="137" t="s">
+      <c r="K22" s="84"/>
+      <c r="L22" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="146"/>
+      <c r="M22" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" s="89"/>
       <c r="Q22" s="3" t="s">
         <v>172</v>
       </c>
@@ -3500,24 +3481,22 @@
 au
 01/02/25</v>
       </c>
-      <c r="E23" s="140"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="31"/>
-      <c r="H23" s="143"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="138" t="s">
+      <c r="L23" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="M23" s="149" t="s">
-        <v>239</v>
-      </c>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
+      <c r="M23" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="O23" s="89"/>
       <c r="Q23" s="3" t="s">
         <v>221</v>
       </c>
@@ -3541,29 +3520,25 @@
 au
 08/02/25</v>
       </c>
-      <c r="E24" s="139">
+      <c r="E24" s="82">
         <f>E22+1</f>
         <v>10</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="141" t="s">
+      <c r="G24" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="142" t="s">
+      <c r="H24" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="141" t="s">
+      <c r="I24" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="141" t="s">
+      <c r="J24" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="141"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="146"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="80"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3582,20 +3557,16 @@
 au
 15/02/25</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="146"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="96"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3614,18 +3585,15 @@
 au
 22/02/25</v>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="145"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="96"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -3668,12 +3636,12 @@
       </c>
       <c r="K27" s="44"/>
       <c r="L27" s="76"/>
-      <c r="M27" s="150" t="s">
-        <v>240</v>
-      </c>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="150"/>
+      <c r="M27" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -3703,10 +3671,8 @@
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="146"/>
+      <c r="M28" s="90"/>
+      <c r="O28" s="90"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -3749,12 +3715,12 @@
       </c>
       <c r="K29" s="44"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="151" t="s">
-        <v>241</v>
-      </c>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
+      <c r="M29" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -3784,10 +3750,8 @@
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="146"/>
+      <c r="M30" s="91"/>
+      <c r="O30" s="91"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -3830,12 +3794,12 @@
       </c>
       <c r="K31" s="44"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="152" t="s">
+      <c r="M31" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -3865,10 +3829,8 @@
       <c r="J32" s="35"/>
       <c r="K32" s="35"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="146"/>
+      <c r="M32" s="92"/>
+      <c r="O32" s="92"/>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3889,20 +3851,17 @@
 au
 12/04/25</v>
       </c>
-      <c r="E33" s="129" t="s">
+      <c r="E33" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="146"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="87"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3921,18 +3880,15 @@
 au
 19/04/25</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="102"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3968,12 +3924,12 @@
       </c>
       <c r="K35" s="44"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="148" t="s">
+      <c r="M35" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="N35" s="148"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="148"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -4002,13 +3958,12 @@
       <c r="L36" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="M36" s="148"/>
-      <c r="N36" s="145"/>
-      <c r="O36" s="148" t="s">
-        <v>242</v>
-      </c>
-      <c r="P36" s="146" t="s">
-        <v>243</v>
+      <c r="M36" s="88"/>
+      <c r="O36" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="Q36" s="3"/>
     </row>
@@ -4052,14 +4007,14 @@
         <v>228</v>
       </c>
       <c r="M37" s="36" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N37" s="36"/>
       <c r="O37" s="36" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Q37" s="3"/>
     </row>
@@ -4090,13 +4045,11 @@
         <v>229</v>
       </c>
       <c r="M38" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="N38" s="145"/>
+        <v>237</v>
+      </c>
       <c r="O38" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="P38" s="146"/>
+        <v>234</v>
+      </c>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -4135,12 +4088,12 @@
         <v>223</v>
       </c>
       <c r="K39" s="44"/>
-      <c r="M39" s="149" t="s">
+      <c r="M39" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="N39" s="149"/>
-      <c r="O39" s="149"/>
-      <c r="P39" s="149"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -4169,14 +4122,13 @@
       <c r="L40" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="M40" s="149" t="s">
-        <v>242</v>
-      </c>
-      <c r="N40" s="146" t="s">
-        <v>243</v>
-      </c>
-      <c r="O40" s="149"/>
-      <c r="P40" s="146"/>
+      <c r="M40" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O40" s="89"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -4214,12 +4166,12 @@
       <c r="L41" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="150" t="s">
+      <c r="M41" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="N41" s="150"/>
-      <c r="O41" s="150"/>
-      <c r="P41" s="150"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
@@ -4246,10 +4198,8 @@
       <c r="J42" s="35"/>
       <c r="K42" s="35"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="145"/>
-      <c r="O42" s="150"/>
-      <c r="P42" s="146"/>
+      <c r="M42" s="90"/>
+      <c r="O42" s="90"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -4276,10 +4226,9 @@
       <c r="J43" s="44"/>
       <c r="K43" s="44"/>
       <c r="L43" s="76"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
@@ -4308,10 +4257,9 @@
       <c r="J44" s="35"/>
       <c r="K44" s="35"/>
       <c r="L44" s="38"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
-      <c r="O44" s="146"/>
-      <c r="P44" s="146"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -4329,30 +4277,27 @@
 au
 05/07/25</v>
       </c>
-      <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="146"/>
-      <c r="P45" s="146"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="6">
         <f t="shared" si="2"/>
         <v>45844</v>
       </c>
-      <c r="M46" s="146"/>
-      <c r="N46" s="146"/>
-      <c r="O46" s="146"/>
-      <c r="P46" s="146"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="6">
         <f t="shared" si="2"/>
         <v>45851</v>
       </c>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="146"/>
-      <c r="P47" s="146"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="6">
@@ -4503,11 +4448,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E33:L34"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="I14:I15"/>
@@ -4517,26 +4477,11 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E33:L34"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="E18:L19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4641,16 +4586,16 @@
       <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="121" t="s">
         <v>197</v>
       </c>
       <c r="K2" s="57" t="s">
@@ -4686,17 +4631,17 @@
 au
 15/09/24</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="116">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="114"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
       <c r="M3" s="2" t="s">
@@ -4734,8 +4679,8 @@
 au
 22/09/24</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="81"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
@@ -4782,21 +4727,21 @@
 au
 29/09/24</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="116">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="118" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="119" t="s">
         <v>201</v>
       </c>
       <c r="K5" s="13"/>
@@ -4836,14 +4781,14 @@
 au
 06/10/24</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="81"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
@@ -4881,7 +4826,7 @@
       <c r="E7" s="58"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="118" t="s">
         <v>175</v>
       </c>
       <c r="I7" s="13"/>
@@ -4927,7 +4872,7 @@
         <v>199</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="81"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
         <v>198</v>
@@ -4964,16 +4909,16 @@
 au
 27/10/24</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -4991,14 +4936,14 @@
 au
 03/11/24</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -5019,7 +4964,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="109" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -5067,22 +5012,22 @@
 au
 17/11/24</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="108">
         <v>5</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="90" t="s">
+      <c r="F12" s="110"/>
+      <c r="G12" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90" t="s">
+      <c r="I12" s="103"/>
+      <c r="J12" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="115"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="129"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -5115,16 +5060,16 @@
 au
 24/11/24</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="111" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="115"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="129"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -5160,23 +5105,23 @@
 au
 01/12/24</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="108">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="110"/>
+      <c r="G14" s="103" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90" t="s">
+      <c r="I14" s="103"/>
+      <c r="J14" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="115"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="129"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -5209,16 +5154,16 @@
 au
 08/12/24</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="111" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="90"/>
+      <c r="G15" s="103"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="115"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="129"/>
       <c r="M15" s="37" t="s">
         <v>206</v>
       </c>
@@ -5251,20 +5196,20 @@
 au
 15/12/24</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="108">
         <v>7</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="90"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="103"/>
       <c r="H16" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90" t="s">
+      <c r="I16" s="103"/>
+      <c r="J16" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="115" t="s">
+      <c r="K16" s="103"/>
+      <c r="L16" s="129" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -5302,16 +5247,16 @@
 au
 22/12/24</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="112"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="60"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="116"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="130"/>
       <c r="M17" s="2" t="s">
         <v>93</v>
       </c>
@@ -5344,16 +5289,16 @@
 au
 29/12/24</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -5373,14 +5318,14 @@
 au
 05/01/25</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5402,24 +5347,24 @@
 au
 12/01/25</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="116">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="90" t="s">
+      <c r="G20" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80" t="s">
+      <c r="I20" s="118"/>
+      <c r="J20" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="80"/>
-      <c r="L20" s="82"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="123"/>
       <c r="M20" s="51" t="s">
         <v>95</v>
       </c>
@@ -5455,16 +5400,16 @@
 au
 19/01/25</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="90" t="s">
+      <c r="E21" s="117"/>
+      <c r="F21" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="83"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="124"/>
       <c r="M21" s="51" t="s">
         <v>95</v>
       </c>
@@ -5497,25 +5442,25 @@
 au
 26/01/25</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="116">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="80" t="s">
+      <c r="F22" s="103"/>
+      <c r="G22" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="80" t="s">
+      <c r="J22" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="K22" s="80"/>
-      <c r="L22" s="82"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="123"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5551,16 +5496,16 @@
 au
 02/02/25</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="90" t="s">
+      <c r="E23" s="117"/>
+      <c r="F23" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="83"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="124"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -5593,25 +5538,25 @@
 au
 09/02/25</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="116">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="80" t="s">
+      <c r="F24" s="103"/>
+      <c r="G24" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="97" t="s">
+      <c r="H24" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="80"/>
-      <c r="L24" s="82" t="s">
+      <c r="K24" s="118"/>
+      <c r="L24" s="123" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="64" t="s">
@@ -5641,16 +5586,16 @@
 au
 16/02/25</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="83"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="124"/>
       <c r="M25" s="64" t="s">
         <v>117</v>
       </c>
@@ -5727,11 +5672,11 @@
       <c r="J27" s="62"/>
       <c r="K27" s="62"/>
       <c r="L27" s="63"/>
-      <c r="M27" s="99" t="s">
+      <c r="M27" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -5754,30 +5699,30 @@
 au
 09/03/25</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="116">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="88" t="s">
+      <c r="I28" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="80" t="s">
+      <c r="J28" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="80"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -5799,14 +5744,14 @@
 au
 16/03/25</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="83"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="124"/>
       <c r="M29" s="65" t="s">
         <v>119</v>
       </c>
@@ -5837,26 +5782,26 @@
 au
 23/03/25</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="116">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="88" t="s">
+      <c r="I30" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="80" t="s">
+      <c r="J30" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="80"/>
+      <c r="K30" s="118"/>
       <c r="L30" s="10"/>
       <c r="M30" s="66" t="s">
         <v>120</v>
@@ -5888,13 +5833,13 @@
 au
 30/03/25</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
       <c r="L31" s="10"/>
       <c r="M31" s="66" t="s">
         <v>120</v>
@@ -5926,26 +5871,26 @@
 au
 06/04/25</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="116">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="86" t="s">
+      <c r="F32" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="88" t="s">
+      <c r="I32" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="80" t="s">
+      <c r="J32" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="80"/>
+      <c r="K32" s="118"/>
       <c r="L32" s="10"/>
       <c r="M32" s="67" t="s">
         <v>210</v>
@@ -5976,13 +5921,13 @@
 au
 13/04/25</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
       <c r="L33" s="10"/>
       <c r="M33" s="67" t="s">
         <v>210</v>
@@ -6011,16 +5956,16 @@
 au
 20/04/25</v>
       </c>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="133"/>
       <c r="M34" s="68" t="s">
         <v>123</v>
       </c>
@@ -6049,19 +5994,19 @@
 au
 27/04/25</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="91" t="s">
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -6081,26 +6026,26 @@
 au
 04/05/25</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="116">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="80" t="s">
+      <c r="F36" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80" t="s">
+      <c r="G36" s="118"/>
+      <c r="H36" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80" t="s">
+      <c r="I36" s="118"/>
+      <c r="J36" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="80"/>
+      <c r="K36" s="118"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
@@ -6120,13 +6065,13 @@
 au
 11/05/25</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
       <c r="L37" s="18" t="s">
         <v>212</v>
       </c>
@@ -6158,26 +6103,26 @@
 au
 18/05/25</v>
       </c>
-      <c r="E38" s="84">
+      <c r="E38" s="116">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="86" t="s">
+      <c r="F38" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="80" t="s">
+      <c r="G38" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="H38" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="80" t="s">
+      <c r="J38" s="118" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="80"/>
+      <c r="K38" s="118"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>215</v>
@@ -6204,13 +6149,13 @@
 au
 25/05/25</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
       <c r="L39" s="10"/>
       <c r="M39" s="70" t="s">
         <v>126</v>
@@ -6240,27 +6185,27 @@
 au
 01/06/25</v>
       </c>
-      <c r="E40" s="84">
+      <c r="E40" s="116">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="F40" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="80" t="s">
+      <c r="G40" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="80" t="s">
+      <c r="H40" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="80" t="s">
+      <c r="I40" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J40" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="K40" s="80"/>
-      <c r="L40" s="82"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="123"/>
       <c r="M40" s="70" t="s">
         <v>126</v>
       </c>
@@ -6288,14 +6233,14 @@
 au
 08/06/25</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="83"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="124"/>
       <c r="M41" s="45" t="s">
         <v>216</v>
       </c>
@@ -6324,22 +6269,22 @@
 au
 15/06/25</v>
       </c>
-      <c r="E42" s="84">
+      <c r="E42" s="116">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="86" t="s">
+      <c r="F42" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80" t="s">
+      <c r="G42" s="118"/>
+      <c r="H42" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80" t="s">
+      <c r="I42" s="118"/>
+      <c r="J42" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="80"/>
+      <c r="K42" s="118"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -6367,13 +6312,13 @@
 au
 22/06/25</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
       <c r="L43" s="10"/>
       <c r="M43" s="72" t="s">
         <v>219</v>
@@ -6402,14 +6347,14 @@
 au
 29/06/25</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="82"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="123"/>
       <c r="M44" s="2" t="s">
         <v>218</v>
       </c>
@@ -6430,17 +6375,17 @@
 au
 06/07/25</v>
       </c>
-      <c r="E45" s="85">
+      <c r="E45" s="117">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="83"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="124"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -6594,16 +6539,79 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
     <mergeCell ref="M27:O28"/>
     <mergeCell ref="M35:O36"/>
     <mergeCell ref="H2:H3"/>
@@ -6628,6 +6636,16 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="E9:L10"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
@@ -6639,82 +6657,9 @@
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6812,28 +6757,28 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="122">
+      <c r="E2" s="139">
         <v>1</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="121"/>
+      <c r="L2" s="138"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -6863,14 +6808,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="115"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="129"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -6906,27 +6851,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="108">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="I4" s="103"/>
+      <c r="J4" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="115"/>
+      <c r="L4" s="129"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -6959,14 +6904,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="115"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="129"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -7002,27 +6947,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="108">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="H6" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="118" t="s">
+      <c r="I6" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="90"/>
-      <c r="L6" s="115"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="129"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -7055,14 +7000,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="115"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="129"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -7147,16 +7092,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -7174,14 +7119,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -7202,7 +7147,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="109" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -7250,22 +7195,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="108">
         <v>5</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="90" t="s">
+      <c r="F12" s="110"/>
+      <c r="G12" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90" t="s">
+      <c r="I12" s="103"/>
+      <c r="J12" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="115"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="129"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -7298,16 +7243,16 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="111" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="115"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="129"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -7343,23 +7288,23 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="108">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="110"/>
+      <c r="G14" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="H14" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90" t="s">
+      <c r="I14" s="103"/>
+      <c r="J14" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="115"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="129"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -7392,16 +7337,16 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="111" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="115"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="129"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -7437,20 +7382,20 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="108">
         <v>7</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90" t="s">
+      <c r="F16" s="110"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90" t="s">
+      <c r="I16" s="103"/>
+      <c r="J16" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="115" t="s">
+      <c r="K16" s="103"/>
+      <c r="L16" s="129" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -7485,16 +7430,16 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="116"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="130"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -7527,16 +7472,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -7556,14 +7501,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7585,24 +7530,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="116">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="90" t="s">
+      <c r="G20" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80" t="s">
+      <c r="I20" s="118"/>
+      <c r="J20" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="80"/>
-      <c r="L20" s="82"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="123"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -7638,16 +7583,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="90" t="s">
+      <c r="E21" s="117"/>
+      <c r="F21" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="83"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="124"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -7680,25 +7625,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="116">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="80" t="s">
+      <c r="F22" s="103"/>
+      <c r="G22" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="80" t="s">
+      <c r="J22" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="80"/>
-      <c r="L22" s="82"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="123"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -7734,16 +7679,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="90" t="s">
+      <c r="E23" s="117"/>
+      <c r="F23" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="83"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="124"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -7774,25 +7719,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="116">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="80" t="s">
+      <c r="F24" s="103"/>
+      <c r="G24" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="97" t="s">
+      <c r="H24" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="80"/>
-      <c r="L24" s="82" t="s">
+      <c r="K24" s="118"/>
+      <c r="L24" s="123" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -7819,16 +7764,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="83"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="124"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -7859,16 +7804,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="96"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
@@ -7891,14 +7836,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="101"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -7921,27 +7866,27 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="116">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="88" t="s">
+      <c r="I28" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="80" t="s">
+      <c r="J28" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="80"/>
-      <c r="L28" s="82"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="123"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -7972,14 +7917,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="83"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="124"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8007,26 +7952,26 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="116">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="88" t="s">
+      <c r="I30" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="80" t="s">
+      <c r="J30" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="80"/>
+      <c r="K30" s="118"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -8058,13 +8003,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -8093,26 +8038,26 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="116">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="86" t="s">
+      <c r="F32" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="88" t="s">
+      <c r="I32" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="80" t="s">
+      <c r="J32" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="80"/>
+      <c r="K32" s="118"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -8142,13 +8087,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -8179,16 +8124,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="133"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -8208,14 +8153,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -8235,22 +8180,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="116">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="80" t="s">
+      <c r="F36" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80" t="s">
+      <c r="G36" s="118"/>
+      <c r="H36" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80" t="s">
+      <c r="I36" s="118"/>
+      <c r="J36" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="80"/>
+      <c r="K36" s="118"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -8282,13 +8227,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -8320,26 +8265,26 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="84">
+      <c r="E38" s="116">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="86" t="s">
+      <c r="F38" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="80" t="s">
+      <c r="G38" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="H38" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="80" t="s">
+      <c r="J38" s="118" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="80"/>
+      <c r="K38" s="118"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -8369,13 +8314,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -8405,27 +8350,27 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="84">
+      <c r="E40" s="116">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="F40" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="80" t="s">
+      <c r="G40" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="80" t="s">
+      <c r="H40" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="80" t="s">
+      <c r="I40" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J40" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="80"/>
-      <c r="L40" s="82"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="123"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -8451,14 +8396,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="83"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="124"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -8487,22 +8432,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="84">
+      <c r="E42" s="116">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="86" t="s">
+      <c r="F42" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80" t="s">
+      <c r="G42" s="118"/>
+      <c r="H42" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80" t="s">
+      <c r="I42" s="118"/>
+      <c r="J42" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="80"/>
+      <c r="K42" s="118"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -8534,13 +8479,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -8564,14 +8509,14 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="82"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="123"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -8589,17 +8534,17 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="85">
+      <c r="E45" s="117">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="83"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="124"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -8753,6 +8698,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="E26:L27"/>
@@ -8777,116 +8832,6 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8974,15 +8919,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="128"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="149"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -9003,21 +8948,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="116">
         <v>1</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -9040,13 +8985,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -9069,22 +9014,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="116">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -9107,13 +9052,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -9136,24 +9081,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="116">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80" t="s">
+      <c r="I7" s="118"/>
+      <c r="J7" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="80"/>
+      <c r="K7" s="118"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -9178,13 +9123,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -9243,17 +9188,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="125"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="143"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -9271,15 +9216,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -9340,22 +9285,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="116">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -9378,13 +9323,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -9407,20 +9352,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="116">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -9443,13 +9388,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -9509,17 +9454,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="125"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="143"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -9537,15 +9482,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="107"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -9603,20 +9548,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="116">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -9641,16 +9586,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="135" t="s">
+      <c r="N22" s="140" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9673,23 +9618,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="116">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="135"/>
+      <c r="N23" s="140"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -9710,13 +9655,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -9736,17 +9681,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="123" t="s">
+      <c r="E25" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="125"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="143"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -9764,15 +9709,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="107"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -9793,20 +9738,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="116">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="F27" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="80"/>
+      <c r="K27" s="118"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -9831,13 +9776,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="81"/>
+      <c r="K28" s="110"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -9860,20 +9805,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="116">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="80" t="s">
+      <c r="F29" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="80"/>
+      <c r="K29" s="118"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -9896,13 +9841,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="81"/>
+      <c r="K30" s="110"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -9925,18 +9870,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="116">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="80" t="s">
+      <c r="F31" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="80"/>
+      <c r="K31" s="118"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -9962,13 +9907,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="81"/>
+      <c r="K32" s="110"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -10022,17 +9967,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="129" t="s">
+      <c r="E34" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="131"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="99"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -10050,15 +9995,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="96"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="102"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -10110,20 +10055,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="116">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="F37" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80" t="s">
+      <c r="G37" s="118"/>
+      <c r="H37" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="80"/>
+      <c r="I37" s="118"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="80"/>
+      <c r="K37" s="118"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -10143,13 +10088,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="81"/>
+      <c r="K38" s="110"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -10169,15 +10114,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="116">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="80" t="s">
+      <c r="F39" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="80"/>
-      <c r="H39" s="133"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="144"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -10204,10 +10149,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="134"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="145"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -10230,20 +10175,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="116">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="80" t="s">
+      <c r="F41" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80" t="s">
+      <c r="G41" s="118"/>
+      <c r="H41" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="80"/>
+      <c r="I41" s="118"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="80"/>
+      <c r="K41" s="118"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -10263,13 +10208,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="81"/>
+      <c r="K42" s="110"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -10291,16 +10236,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="129">
+      <c r="E43" s="97">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="90"/>
+      <c r="K43" s="103"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -10322,13 +10267,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="90"/>
+      <c r="K44" s="103"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -10352,9 +10297,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="132"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -10513,70 +10458,22 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -10593,22 +10490,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -10692,14 +10637,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -10720,19 +10665,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="129">
+      <c r="E3" s="97">
         <v>1</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="90"/>
+      <c r="I3" s="103"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -10756,11 +10701,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -10784,20 +10729,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="97">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="90"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -10821,11 +10766,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -10849,20 +10794,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="129">
+      <c r="E7" s="97">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="90"/>
+      <c r="I7" s="103"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -10888,11 +10833,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -10951,16 +10896,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -10978,14 +10923,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -11019,7 +10964,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="118" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -11047,11 +10992,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="116">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="118" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -11060,7 +11005,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="81"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -11084,15 +11029,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="80" t="s">
+      <c r="E14" s="117"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="118" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -11118,16 +11063,16 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="129">
+      <c r="E15" s="97">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -11151,15 +11096,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="80" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="118" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -11194,9 +11139,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -11217,16 +11162,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -11244,14 +11189,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -11278,13 +11223,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="118" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -11310,16 +11255,16 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E21" s="97">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -11345,21 +11290,21 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="80" t="s">
+      <c r="E22" s="100"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="118" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="135" t="s">
+      <c r="M22" s="140" t="s">
         <v>35</v>
       </c>
     </row>
@@ -11382,20 +11327,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="129">
+      <c r="E23" s="97">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="135"/>
+      <c r="M23" s="140"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -11416,8 +11361,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -11447,16 +11392,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="123" t="s">
+      <c r="E25" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="125"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="143"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -11474,14 +11419,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -11502,17 +11447,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="129">
+      <c r="E27" s="97">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="90"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -11539,10 +11484,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -11567,17 +11512,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="129">
+      <c r="E29" s="97">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="90" t="s">
+      <c r="F29" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="90" t="s">
+      <c r="G29" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="90"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -11602,10 +11547,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -11630,15 +11575,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="129">
+      <c r="E31" s="97">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="90" t="s">
+      <c r="F31" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -11666,10 +11611,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -11724,16 +11669,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="129" t="s">
+      <c r="E34" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="131"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -11751,14 +11696,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -11809,15 +11754,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="129">
+      <c r="E37" s="97">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="90" t="s">
+      <c r="F37" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90" t="s">
+      <c r="G37" s="103"/>
+      <c r="H37" s="103" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -11841,10 +11786,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -11866,15 +11811,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="129">
+      <c r="E39" s="97">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="90" t="s">
+      <c r="F39" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="90"/>
-      <c r="H39" s="136"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="150"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -11900,10 +11845,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="136"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="150"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -11925,15 +11870,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="129">
+      <c r="E41" s="97">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="90" t="s">
+      <c r="F41" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90" t="s">
+      <c r="G41" s="103"/>
+      <c r="H41" s="103" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -11957,10 +11902,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -11984,13 +11929,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="129">
+      <c r="E43" s="97">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -12014,10 +11959,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -12043,9 +11988,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="132"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -12203,6 +12148,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -12219,61 +12219,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
